--- a/LampGame/LampGame/stagedata/Stage3.xlsx
+++ b/LampGame/LampGame/stagedata/Stage3.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP4" sqref="E4:BP4"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W1" s="1">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB1" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -1242,22 +1242,22 @@
         <v>0</v>
       </c>
       <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
         <v>8</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -1780,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -1801,31 +1801,31 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>1</v>
@@ -1876,43 +1876,43 @@
         <v>1</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="1">
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2094,26 +2094,26 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>7</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="1">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2393,29 +2393,29 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
         <v>7</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
       <c r="U7" s="1">
         <v>0</v>
       </c>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="1">
         <v>5</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -2677,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2692,32 +2692,32 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <v>7</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
       <c r="U8" s="1">
         <v>0</v>
       </c>
@@ -2782,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="1">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="1">
         <v>5</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD8" s="1">
         <v>0</v>
@@ -2976,50 +2976,50 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>7</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
       <c r="U9" s="1">
         <v>0</v>
       </c>
@@ -3042,20 +3042,20 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>3</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AF9" s="1">
         <v>6</v>
       </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
       <c r="AG9" s="1">
         <v>0</v>
       </c>
@@ -3084,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -3102,16 +3102,16 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="1">
         <v>5</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -3135,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
         <v>6</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>0</v>
@@ -3335,19 +3335,19 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
         <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
         <v>1</v>
@@ -3410,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="AX10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="1">
         <v>1</v>
@@ -3425,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="BC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="1">
         <v>1</v>
@@ -3565,7 +3565,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK6 A7:CV10">
+  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK2 A10:CV10 BI7:CV9 BI3:BK6 A3:BH9">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3585,7 +3585,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BH4 BL2:CV3 BK2:BK9 BJ2:BJ5 BC2:BI3 AZ1:CV1 CN4:CO9">
+  <conditionalFormatting sqref="BL2:CV3 BK2:BK9 BJ2:BJ5 BF2:BI2 CN4:CO9 BE1:CV1 BG3:BH4 BI3">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage3.xlsx
+++ b/LampGame/LampGame/stagedata/Stage3.xlsx
@@ -104,175 +104,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -719,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -762,224 +594,224 @@
       <c r="L1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="1">
-        <v>1</v>
+      <c r="M1" s="2">
+        <v>0</v>
       </c>
       <c r="N1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH1" s="1">
         <v>1</v>
@@ -3747,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:CV3 A1:CV2 A3:F6 G4:AM6 AN4:CV10 A7:AM10">
+  <conditionalFormatting sqref="G3:CV3 A3:F6 G4:AM6 AN4:CV10 A7:AM10 A1:CV2">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage3.xlsx
+++ b/LampGame/LampGame/stagedata/Stage3.xlsx
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ9" sqref="BJ9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -592,9 +592,9 @@
         <v>0</v>
       </c>
       <c r="L1" s="1">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
         <v>0</v>
       </c>
       <c r="N1" s="1">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1" s="1">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ1" s="1">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="AV1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW1" s="1">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD1" s="1">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL1" s="1">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="CC1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD1" s="1">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="CT1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU1" s="1">
         <v>0</v>
@@ -894,9 +894,9 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW2" s="1">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD2" s="1">
         <v>0</v>
       </c>
       <c r="BE2" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF2" s="1">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD2" s="1">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="CH2" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CI2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CJ2" s="1">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU2" s="1">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="1">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="AV3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW3" s="1">
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG3" s="1">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BP3" s="1">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD3" s="1">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CI3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3" s="1">
         <v>0</v>
@@ -1498,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1534,55 +1534,55 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
         <v>1</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="1">
         <v>0</v>
@@ -1600,40 +1600,40 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="1">
         <v>0</v>
@@ -1642,85 +1642,85 @@
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="1">
         <v>1</v>
       </c>
       <c r="BL4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BM4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BN4" s="1">
         <v>1</v>
       </c>
       <c r="BO4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BQ4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CA4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CB4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>1</v>
       </c>
       <c r="CD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI4" s="1">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="1">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="1">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ5" s="1">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV5" s="1">
         <v>0</v>
@@ -1998,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="BZ5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB5" s="1">
         <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="CH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI5" s="1">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="CU5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CV5" s="1">
         <v>1</v>
@@ -2102,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2117,214 +2117,214 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>8</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>5</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="1">
         <v>6</v>
       </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>8</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>0</v>
-      </c>
       <c r="CE6" s="1">
         <v>0</v>
       </c>
       <c r="CF6" s="1">
         <v>0</v>
       </c>
-      <c r="CG6" s="2">
-        <v>8</v>
+      <c r="CG6" s="1">
+        <v>0</v>
       </c>
       <c r="CH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI6" s="1">
         <v>0</v>
@@ -2333,37 +2333,37 @@
         <v>0</v>
       </c>
       <c r="CK6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CL6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CM6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CN6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CO6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CP6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CR6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CS6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CT6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CU6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV6" s="1">
         <v>1</v>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -2434,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -2449,37 +2449,37 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -2497,73 +2497,73 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AU7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
       </c>
       <c r="BE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
         <v>1</v>
       </c>
       <c r="BL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>0</v>
@@ -2572,34 +2572,34 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" s="1">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="CB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>1</v>
@@ -2620,22 +2620,22 @@
         <v>1</v>
       </c>
       <c r="CF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI7" s="1">
         <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CL7" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ7" s="1">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV7" s="1">
         <v>1</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
@@ -2796,19 +2796,19 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="1">
         <v>5</v>
       </c>
       <c r="AT8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU8" s="1">
         <v>0</v>
@@ -2844,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="BF8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH8" s="1">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="1">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="BY8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="1">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CL8" s="1">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="CP8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="CU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV8" s="1">
         <v>1</v>
@@ -3023,29 +3023,29 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>3</v>
       </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>0</v>
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
         <v>5</v>
@@ -3109,8 +3109,8 @@
       <c r="AS9" s="1">
         <v>5</v>
       </c>
-      <c r="AT9" s="2">
-        <v>0</v>
+      <c r="AT9" s="1">
+        <v>5</v>
       </c>
       <c r="AU9" s="1">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH9" s="1">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BL9" s="1">
         <v>0</v>
@@ -3175,20 +3175,20 @@
       <c r="BO9" s="1">
         <v>0</v>
       </c>
-      <c r="BP9" s="1">
+      <c r="BP9" s="2">
         <v>0</v>
       </c>
       <c r="BQ9" s="1">
         <v>0</v>
       </c>
       <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>5</v>
       </c>
       <c r="BT9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="1">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="1">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD9" s="1">
         <v>0</v>
@@ -3227,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="CG9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CH9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CI9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CL9" s="1">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="CP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ9" s="1">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="CU9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV9" s="1">
         <v>1</v>
@@ -3579,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:CV3 A3:F6 G4:AM6 AN4:CV10 A7:AM10 A1:CV2">
+  <conditionalFormatting sqref="BK1:CV1 A10:CV10 A1:BJ9 CO3:CS3 CO2 BK2:CN9 CO4:CV9">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3599,7 +3599,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN4:CN9 BK4:BK9">
+  <conditionalFormatting sqref="BK2:BK9 BL2:CV2 AS4:AS7 AT4 AW1:BB1 BD1:BJ3 AR2:BC3 BL3:BN3 CT1 BP3:CV3">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage3.xlsx
+++ b/LampGame/LampGame/stagedata/Stage3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CQ4" sqref="CQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2345,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="CO6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CQ6" s="1">
         <v>5</v>
@@ -2647,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="1">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9" s="1">
         <v>0</v>
